--- a/Garonzi_Imran_Klein_CocomoMdS/RACI_WBS_OBI/Garonzi_Imran_Klein_CocomoMdS_RACI.xlsx
+++ b/Garonzi_Imran_Klein_CocomoMdS/RACI_WBS_OBI/Garonzi_Imran_Klein_CocomoMdS_RACI.xlsx
@@ -1,19 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vague\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CDD002-263E-44F8-B363-82C61376FA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Matrix" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Matrix" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="valuevx">42.314159</definedName>
@@ -21,7 +11,7 @@
     <definedName name="vertex42_id">"RACI-matrix.xlsx"</definedName>
     <definedName name="vertex42_title">"RACI Matrix Template"</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjUYwcjijAI8hJFFMzmgLECHHmCaA=="/>
@@ -147,132 +137,129 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="23">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="36"/>
+      <sz val="36.0"/>
       <color rgb="FF2E75B6"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="22.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF1F4E79"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF2E75B6"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color rgb="FFE2F0D9"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF548235"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color rgb="FFDEEBF7"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF2E75B6"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF5B9BD5"/>
       <name val="Calibri"/>
     </font>
@@ -282,7 +269,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -316,13 +303,7 @@
     </fill>
   </fills>
   <borders count="16">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF6FA8DC"/>
@@ -336,7 +317,6 @@
       <bottom style="thin">
         <color rgb="FF6FA8DC"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -351,7 +331,6 @@
       <bottom style="thin">
         <color rgb="FF6FA8DC"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -366,7 +345,6 @@
       <bottom style="thin">
         <color rgb="FF6FA8DC"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -379,7 +357,6 @@
         <color rgb="FF2E75B6"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -390,46 +367,34 @@
         <color rgb="FF2E75B6"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF2E75B6"/>
       </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF2E75B6"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -442,7 +407,6 @@
       <bottom style="thin">
         <color rgb="FFA6A6A6"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -453,7 +417,6 @@
       <bottom style="thin">
         <color rgb="FFA6A6A6"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -468,20 +431,17 @@
       <bottom style="thin">
         <color rgb="FFA6A6A6"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFA6A6A6"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FFA6A6A6"/>
       </top>
       <bottom style="thin">
         <color rgb="FFA6A6A6"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -496,128 +456,123 @@
       <bottom style="thick">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="39">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="12" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="12" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="13" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="11" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -628,17 +583,11 @@
     <xdr:ext cx="1514475" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -656,7 +605,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -846,37 +795,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="30" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="5.86"/>
+    <col customWidth="1" min="2" max="2" width="59.29"/>
+    <col customWidth="1" min="3" max="3" width="8.86"/>
+    <col customWidth="1" min="4" max="4" width="7.43"/>
+    <col customWidth="1" min="5" max="8" width="5.43"/>
+    <col customWidth="1" min="9" max="9" width="7.29"/>
+    <col customWidth="1" min="10" max="10" width="25.71"/>
+    <col customWidth="1" min="11" max="30" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="37.5" customHeight="1">
+    <row r="1" ht="37.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="13.5" customHeight="1">
+    <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,12 +838,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" customHeight="1">
+    <row r="3" ht="15.0" customHeight="1">
       <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="86.25" customHeight="1">
+    <row r="4" ht="86.25" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
@@ -919,7 +866,7 @@
       </c>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:30" ht="22.5" customHeight="1">
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>10</v>
@@ -927,371 +874,371 @@
       <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="21"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-    </row>
-    <row r="7" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="28" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21" t="s">
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21" t="s">
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-    </row>
-    <row r="11" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21" t="s">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="25" t="s">
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="25" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="25" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="25" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
       <c r="J17" s="13"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-    </row>
-    <row r="18" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18" t="s">
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="26"/>
+      <c r="B21" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="26"/>
+      <c r="B23" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:30" ht="19.5" customHeight="1" thickBot="1">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -1309,11 +1256,11 @@
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
     </row>
-    <row r="26" spans="1:30" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="28" t="s">
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1347,11 +1294,11 @@
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
     </row>
-    <row r="27" spans="1:30" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="30" t="s">
+    <row r="27" ht="20.25" customHeight="1">
+      <c r="A27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1369,13 +1316,15 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:30" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="29" spans="1:30" ht="13.5" customHeight="1">
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:30" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:30" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:30" ht="13.5" customHeight="1"/>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="J28" s="38"/>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1"/>
+    <row r="31" ht="13.5" customHeight="1"/>
+    <row r="32" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -2350,19 +2299,19 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:H5"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="D6:H16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="D6:H16">
       <formula1>$A$26:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D17:H24" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$A$27:$A$27</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="D17:H24">
+      <formula1>$A$27:$A$28</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId1" ref="J2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.35" header="0" footer="0"/>
+  <pageMargins bottom="0.35" footer="0.0" header="0.0" left="0.35" right="0.35" top="0.35"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId2"/>
 </worksheet>
